--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD095B-F801-44DF-97D6-DE171AB6305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186EF0B-F34D-4BED-80F1-8B0759A3E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E2:E51"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1346,7 @@
         <v>-115.56588600000001</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>-115.515533</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>145</v>
@@ -1689,7 +1689,7 @@
         <v>-117.579223</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>-117.72657</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186EF0B-F34D-4BED-80F1-8B0759A3E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF999226-F7F9-4B84-9C73-006EF97829B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1765,6 +1765,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF999226-F7F9-4B84-9C73-006EF97829B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05BDAA-7DCC-40B1-9218-44B533325E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1765,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C05BDAA-7DCC-40B1-9218-44B533325E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6073F-32FC-420F-BE8C-22FADE297A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>When removed, any usable infrastructure could be relocated to proposed USC, EFS, and/or USP locations.</t>
   </si>
   <si>
-    <t>Long-term, consider upgrades to IS1001 to increase read range. During upgrades, could be considered for consolidation to a single-pass array.</t>
-  </si>
-  <si>
     <t>Evaluate feasibility of an IPTDS in SRCHA-s and SRCHA populations. Preferred locations would be lower Chamberlain Creek. Alternate locations: upper Chamberlain, Sabe, Bargamin, Warren, Crooked, or Sheep creeks. Any of the proposed locations would need to be a tandem array.</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Long-term, if desired, SW2 could be moved to the end of the Selway Road which would allow parsing of the SEMOO and SEUMA Chinook salmon populations from SEMEA, but would need to be a tandem array.</t>
+  </si>
+  <si>
+    <t>Recently upgraded to a IS1001 Master Controller.</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1016,7 @@
         <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>119</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>119</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
         <v>117</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>117</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>117</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
         <v>117</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
         <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1761,7 +1761,7 @@
         <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6073F-32FC-420F-BE8C-22FADE297A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98F66B-1881-4E95-B8E6-9565E9AC4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,15 +833,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,14 +1778,14 @@
       <selection sqref="A1:C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>-118.16290100000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>-118.016274</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>-117.738342</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>-117.657161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>-117.706176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>-117.684506</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>-116.812535</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-116.79575699999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>-116.831974</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>-116.735597</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>-116.709318</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>-116.646846</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>-116.650795</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>-116.596836</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>-116.41088000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>-116.42841199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>-116.54975899999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>-115.97615999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>-115.933747</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>-116.582295</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>-116.13350699999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>-116.02898500000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>-115.981313</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>-115.97776</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>-115.95018399999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>-115.596497</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>-115.589663</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>-115.56588600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>-115.515533</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>-115.815972</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>-115.6341</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>-115.52766</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>-117.055707</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>-117.108679</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>-117.28249700000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>-117.292147</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>-117.016408</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>-117.45412399999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>-117.733757</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>-117.72657</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>-117.579223</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>-117.863445</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>-117.903379</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>-117.82861699999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>-117.900689</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>-118.388958</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>-116.306603</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>-115.579712</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>-115.73302</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>-115.53315000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>-115.333883</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>-115.726994</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>-114.85381700000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>-115.284171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-115.179841</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>-114.358101</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>-113.994089</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-113.893466</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>-113.885278</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>88</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>-113.774021</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>-113.7556</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>-113.74641800000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>91</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>-113.74987</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>-113.746897</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>-113.742696</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>-113.72604200000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>-113.72049699999999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>95</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>-113.654847</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>-113.639543</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>-113.62475000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>-113.63193699999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>-113.62472099999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>-113.545027</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>-113.462458</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>99</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>-113.43321400000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>-113.47464100000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>-113.37041000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>-113.374118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>-113.377624</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>103</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>-113.397036</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>-113.365281</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>-113.35366</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-113.31155</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>-113.916319</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>-113.964145</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>-114.72045300000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>-114.72163999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>-114.93146</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>-114.94215</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>-114.90504300000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-114.88377199999999</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>48</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>-116.74403700000001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>-116.868663</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>45</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>-116.750231</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>-116.764304</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>-116.872927</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>112</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>-116.868492</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>-116.850735</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>-116.804096</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>-116.806641</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>-116.84478</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>-116.868774</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>

--- a/data/prioritization/iptds_site_recommendations_20241211.xlsx
+++ b/data/prioritization/iptds_site_recommendations_20241211.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeRiverIPTDS\data\prioritization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD98F66B-1881-4E95-B8E6-9565E9AC4132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC99D1-44F7-4920-B7FF-8984A837096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1758,7 @@
         <v>-117.055707</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>143</v>
